--- a/horario_salones.xlsx
+++ b/horario_salones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474CEBF9-FBD8-4C25-92A7-E649D7D71BDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4229044D-7E0E-45BA-B8AA-9147002944AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{F1099DDD-B788-4995-A76F-5A067FF6B466}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F1099DDD-B788-4995-A76F-5A067FF6B466}"/>
   </bookViews>
   <sheets>
     <sheet name="H" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2993" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3497" uniqueCount="798">
   <si>
     <t>E</t>
   </si>
@@ -1885,6 +1885,9 @@
     <t>DR401(01)</t>
   </si>
   <si>
+    <t>403A</t>
+  </si>
+  <si>
     <t>DR401(02)</t>
   </si>
   <si>
@@ -2051,6 +2054,381 @@
   </si>
   <si>
     <t>DR601(03)</t>
+  </si>
+  <si>
+    <t>DR513(01)</t>
+  </si>
+  <si>
+    <t>DR513(02)</t>
+  </si>
+  <si>
+    <t>DR513(03)</t>
+  </si>
+  <si>
+    <t>DR513(04)</t>
+  </si>
+  <si>
+    <t>404A</t>
+  </si>
+  <si>
+    <t>DR701(01)</t>
+  </si>
+  <si>
+    <t>DR701(02)</t>
+  </si>
+  <si>
+    <t>DR701(03)</t>
+  </si>
+  <si>
+    <t>DR701(04)</t>
+  </si>
+  <si>
+    <t>101A</t>
+  </si>
+  <si>
+    <t>102A</t>
+  </si>
+  <si>
+    <t>DR540(01)</t>
+  </si>
+  <si>
+    <t>DR540(02)</t>
+  </si>
+  <si>
+    <t>DR540(03)</t>
+  </si>
+  <si>
+    <t>DR702(01)</t>
+  </si>
+  <si>
+    <t>DR702(03)</t>
+  </si>
+  <si>
+    <t>DR702(02)</t>
+  </si>
+  <si>
+    <t>DR703(01)</t>
+  </si>
+  <si>
+    <t>DR703(02)</t>
+  </si>
+  <si>
+    <t>DR703(03)</t>
+  </si>
+  <si>
+    <t>DR704(01)</t>
+  </si>
+  <si>
+    <t>DR704(02)</t>
+  </si>
+  <si>
+    <t>DR704(03)</t>
+  </si>
+  <si>
+    <t>DR704(04)</t>
+  </si>
+  <si>
+    <t>DR706(01)</t>
+  </si>
+  <si>
+    <t>DR707(01)</t>
+  </si>
+  <si>
+    <t>DR708(01)</t>
+  </si>
+  <si>
+    <t>DR709(01)</t>
+  </si>
+  <si>
+    <t>DR539(01)</t>
+  </si>
+  <si>
+    <t>DR539(02)</t>
+  </si>
+  <si>
+    <t>DR539(03)</t>
+  </si>
+  <si>
+    <t>DR802(01)</t>
+  </si>
+  <si>
+    <t>DR802(02)</t>
+  </si>
+  <si>
+    <t>DR802(03)</t>
+  </si>
+  <si>
+    <t>DR541(01)</t>
+  </si>
+  <si>
+    <t>DR541(02)</t>
+  </si>
+  <si>
+    <t>DR541(03)</t>
+  </si>
+  <si>
+    <t>DR507(01)</t>
+  </si>
+  <si>
+    <t>DR507(02)</t>
+  </si>
+  <si>
+    <t>DR507(03)</t>
+  </si>
+  <si>
+    <t>DR507(04)</t>
+  </si>
+  <si>
+    <t>DR801(01)</t>
+  </si>
+  <si>
+    <t>DR801(02)</t>
+  </si>
+  <si>
+    <t>DR801(03)</t>
+  </si>
+  <si>
+    <t>DR801(04)</t>
+  </si>
+  <si>
+    <t>DR805(01)</t>
+  </si>
+  <si>
+    <t>DR806(01)</t>
+  </si>
+  <si>
+    <t>DR807(01)</t>
+  </si>
+  <si>
+    <t>DR808(01)</t>
+  </si>
+  <si>
+    <t>DR910(01)</t>
+  </si>
+  <si>
+    <t>DR903(01)</t>
+  </si>
+  <si>
+    <t>DR903(02)</t>
+  </si>
+  <si>
+    <t>DR903(03)</t>
+  </si>
+  <si>
+    <t>DR903(04)</t>
+  </si>
+  <si>
+    <t>DR533(01)</t>
+  </si>
+  <si>
+    <t>DR533(02)</t>
+  </si>
+  <si>
+    <t>DR533(03)</t>
+  </si>
+  <si>
+    <t>DR533(04)</t>
+  </si>
+  <si>
+    <t>DR533(05)</t>
+  </si>
+  <si>
+    <t>DR511(01)</t>
+  </si>
+  <si>
+    <t>DR511(02)</t>
+  </si>
+  <si>
+    <t>DR511(03)</t>
+  </si>
+  <si>
+    <t>DR111(04)</t>
+  </si>
+  <si>
+    <t>DR112(01)</t>
+  </si>
+  <si>
+    <t>DR5112(02)</t>
+  </si>
+  <si>
+    <t>DR112(03)</t>
+  </si>
+  <si>
+    <t>DR112(04)</t>
+  </si>
+  <si>
+    <t>DR112(05)</t>
+  </si>
+  <si>
+    <t>501H</t>
+  </si>
+  <si>
+    <t>CP101(01)</t>
+  </si>
+  <si>
+    <t>AE101(01)</t>
+  </si>
+  <si>
+    <t>FACE101(01)</t>
+  </si>
+  <si>
+    <t>EC101(01)</t>
+  </si>
+  <si>
+    <t>EC101(04)</t>
+  </si>
+  <si>
+    <t>CP101(04)</t>
+  </si>
+  <si>
+    <t>AE101(04)</t>
+  </si>
+  <si>
+    <t>CP101(02)</t>
+  </si>
+  <si>
+    <t>FACE101(04)</t>
+  </si>
+  <si>
+    <t>CP101(06)</t>
+  </si>
+  <si>
+    <t>EC101(02)</t>
+  </si>
+  <si>
+    <t>AE101(02)</t>
+  </si>
+  <si>
+    <t>FACE101(02)</t>
+  </si>
+  <si>
+    <t>AE101(05)</t>
+  </si>
+  <si>
+    <t>CP100(01)</t>
+  </si>
+  <si>
+    <t>PG106(01)</t>
+  </si>
+  <si>
+    <t>PG106(02)</t>
+  </si>
+  <si>
+    <t>CP101(03)</t>
+  </si>
+  <si>
+    <t>AE101(03)</t>
+  </si>
+  <si>
+    <t>PG106((03)</t>
+  </si>
+  <si>
+    <t>EC101(03)</t>
+  </si>
+  <si>
+    <t>FACE101(03)</t>
+  </si>
+  <si>
+    <t>MT301C(01)</t>
+  </si>
+  <si>
+    <t>MT301C(02)</t>
+  </si>
+  <si>
+    <t>MT301C(03)</t>
+  </si>
+  <si>
+    <t>EC101(05)</t>
+  </si>
+  <si>
+    <t>AE101(06)</t>
+  </si>
+  <si>
+    <t>502H</t>
+  </si>
+  <si>
+    <t>FACE101(05)</t>
+  </si>
+  <si>
+    <t>EC101(06)</t>
+  </si>
+  <si>
+    <t>FACE101(06)</t>
+  </si>
+  <si>
+    <t>CP100(02)</t>
+  </si>
+  <si>
+    <t>CP100(03)</t>
+  </si>
+  <si>
+    <t>PG106(04)</t>
+  </si>
+  <si>
+    <t>PG106(05)</t>
+  </si>
+  <si>
+    <t>PG106(06)</t>
+  </si>
+  <si>
+    <t>MT301C(06)</t>
+  </si>
+  <si>
+    <t>MT301C(04)</t>
+  </si>
+  <si>
+    <t>MT301C(05)</t>
+  </si>
+  <si>
+    <t>CP101(05)</t>
+  </si>
+  <si>
+    <t>CP101(07)</t>
+  </si>
+  <si>
+    <t>AE101(07)</t>
+  </si>
+  <si>
+    <t>AE101(08)</t>
+  </si>
+  <si>
+    <t>AE101(09)</t>
+  </si>
+  <si>
+    <t>EC101(07)</t>
+  </si>
+  <si>
+    <t>EC101(08)</t>
+  </si>
+  <si>
+    <t>EC101(09)</t>
+  </si>
+  <si>
+    <t>FACE101(07)</t>
+  </si>
+  <si>
+    <t>FACE101(08)</t>
+  </si>
+  <si>
+    <t>PG014(01)</t>
+  </si>
+  <si>
+    <t>PG014(02)</t>
+  </si>
+  <si>
+    <t>PG014(03)</t>
+  </si>
+  <si>
+    <t>503H</t>
+  </si>
+  <si>
+    <t>MT301C(07)</t>
+  </si>
+  <si>
+    <t>MT301C(08)</t>
+  </si>
+  <si>
+    <t>MT301C(09)</t>
   </si>
 </sst>
 </file>
@@ -2231,7 +2609,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2240,10 +2621,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2560,10 +2938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885E4F67-B14C-455A-9E7D-C12CEB605A36}">
-  <dimension ref="A1:BC64"/>
+  <dimension ref="A1:BC86"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53:N54"/>
+    <sheetView tabSelected="1" topLeftCell="I51" workbookViewId="0">
+      <selection activeCell="T84" sqref="T84:T86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,320 +2954,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="I1" s="16" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="I1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="Q1" s="16" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="Q1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="Y1" s="16" t="s">
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="Y1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AG1" s="16" t="s">
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AG1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AO1" s="16" t="s">
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AO1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AW1" s="16" t="s">
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AW1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="16"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
     </row>
     <row r="2" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="16"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="16"/>
-      <c r="BC2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="U3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="V3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="W3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Y3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="Z3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AA3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AB3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AC3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AD3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AE3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="17" t="s">
+      <c r="AG3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AH3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AI3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AJ3" s="19" t="s">
+      <c r="AJ3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AK3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AL3" s="19" t="s">
+      <c r="AL3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AM3" s="19" t="s">
+      <c r="AM3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AO3" s="17" t="s">
+      <c r="AO3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AP3" s="19" t="s">
+      <c r="AP3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AQ3" s="19" t="s">
+      <c r="AQ3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="19" t="s">
+      <c r="AR3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AS3" s="19" t="s">
+      <c r="AS3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AT3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AU3" s="19" t="s">
+      <c r="AU3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AW3" s="17" t="s">
+      <c r="AW3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AX3" s="19" t="s">
+      <c r="AX3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AY3" s="19" t="s">
+      <c r="AY3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AZ3" s="19" t="s">
+      <c r="AZ3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="BA3" s="19" t="s">
+      <c r="BA3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="BB3" s="19" t="s">
+      <c r="BB3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="BC3" s="19" t="s">
+      <c r="BC3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="20"/>
-      <c r="AR4" s="20"/>
-      <c r="AS4" s="20"/>
-      <c r="AT4" s="20"/>
-      <c r="AU4" s="20"/>
-      <c r="AW4" s="18"/>
-      <c r="AX4" s="20"/>
-      <c r="AY4" s="20"/>
-      <c r="AZ4" s="20"/>
-      <c r="BA4" s="20"/>
-      <c r="BB4" s="20"/>
-      <c r="BC4" s="20"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="17"/>
     </row>
     <row r="5" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -3757,7 +4135,9 @@
       <c r="AG17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AH17" s="9"/>
+      <c r="AH17" s="9" t="s">
+        <v>788</v>
+      </c>
       <c r="AI17" s="9" t="s">
         <v>228</v>
       </c>
@@ -3791,7 +4171,9 @@
       <c r="AY17" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="AZ17" s="9"/>
+      <c r="AZ17" s="9" t="s">
+        <v>788</v>
+      </c>
       <c r="BA17" s="9" t="s">
         <v>379</v>
       </c>
@@ -3878,7 +4260,9 @@
       <c r="AG18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AH18" s="5"/>
+      <c r="AH18" s="5" t="s">
+        <v>788</v>
+      </c>
       <c r="AI18" s="5" t="s">
         <v>228</v>
       </c>
@@ -4025,7 +4409,9 @@
       <c r="AR19" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="AS19" s="5"/>
+      <c r="AS19" s="5" t="s">
+        <v>785</v>
+      </c>
       <c r="AT19" s="5" t="s">
         <v>394</v>
       </c>
@@ -4146,7 +4532,9 @@
       <c r="AR20" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="AS20" s="6"/>
+      <c r="AS20" s="6" t="s">
+        <v>785</v>
+      </c>
       <c r="AT20" s="6" t="s">
         <v>394</v>
       </c>
@@ -4166,326 +4554,326 @@
       <c r="BC20" s="6"/>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="I23" s="16" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="I23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="Q23" s="16" t="s">
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="Q23" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="Y23" s="16" t="s">
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="Y23" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="16"/>
-      <c r="AG23" s="16" t="s">
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AG23" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="AH23" s="16"/>
-      <c r="AI23" s="16"/>
-      <c r="AJ23" s="16"/>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="16"/>
-      <c r="AM23" s="16"/>
-      <c r="AO23" s="16" t="s">
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="20"/>
+      <c r="AL23" s="20"/>
+      <c r="AM23" s="20"/>
+      <c r="AO23" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AP23" s="16"/>
-      <c r="AQ23" s="16"/>
-      <c r="AR23" s="16"/>
-      <c r="AS23" s="16"/>
-      <c r="AT23" s="16"/>
-      <c r="AU23" s="16"/>
-      <c r="AW23" s="16" t="s">
+      <c r="AP23" s="20"/>
+      <c r="AQ23" s="20"/>
+      <c r="AR23" s="20"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="20"/>
+      <c r="AU23" s="20"/>
+      <c r="AW23" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="AX23" s="16"/>
-      <c r="AY23" s="16"/>
-      <c r="AZ23" s="16"/>
-      <c r="BA23" s="16"/>
-      <c r="BB23" s="16"/>
-      <c r="BC23" s="16"/>
+      <c r="AX23" s="20"/>
+      <c r="AY23" s="20"/>
+      <c r="AZ23" s="20"/>
+      <c r="BA23" s="20"/>
+      <c r="BB23" s="20"/>
+      <c r="BC23" s="20"/>
     </row>
     <row r="24" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
-      <c r="AJ24" s="16"/>
-      <c r="AK24" s="16"/>
-      <c r="AL24" s="16"/>
-      <c r="AM24" s="16"/>
-      <c r="AO24" s="16"/>
-      <c r="AP24" s="16"/>
-      <c r="AQ24" s="16"/>
-      <c r="AR24" s="16"/>
-      <c r="AS24" s="16"/>
-      <c r="AT24" s="16"/>
-      <c r="AU24" s="16"/>
-      <c r="AW24" s="16"/>
-      <c r="AX24" s="16"/>
-      <c r="AY24" s="16"/>
-      <c r="AZ24" s="16"/>
-      <c r="BA24" s="16"/>
-      <c r="BB24" s="16"/>
-      <c r="BC24" s="16"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="20"/>
+      <c r="AR24" s="20"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
+      <c r="AU24" s="20"/>
+      <c r="AW24" s="20"/>
+      <c r="AX24" s="20"/>
+      <c r="AY24" s="20"/>
+      <c r="AZ24" s="20"/>
+      <c r="BA24" s="20"/>
+      <c r="BB24" s="20"/>
+      <c r="BC24" s="20"/>
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N25" s="19" t="s">
+      <c r="N25" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="19" t="s">
+      <c r="O25" s="16" t="s">
         <v>7</v>
       </c>
       <c r="P25" s="1"/>
-      <c r="Q25" s="17" t="s">
+      <c r="Q25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="R25" s="19" t="s">
+      <c r="R25" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="S25" s="19" t="s">
+      <c r="S25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T25" s="19" t="s">
+      <c r="T25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="U25" s="19" t="s">
+      <c r="U25" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="V25" s="19" t="s">
+      <c r="V25" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="W25" s="19" t="s">
+      <c r="W25" s="16" t="s">
         <v>7</v>
       </c>
       <c r="X25" s="1"/>
-      <c r="Y25" s="17" t="s">
+      <c r="Y25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Z25" s="19" t="s">
+      <c r="Z25" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AA25" s="19" t="s">
+      <c r="AA25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AB25" s="19" t="s">
+      <c r="AB25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AC25" s="19" t="s">
+      <c r="AC25" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AD25" s="19" t="s">
+      <c r="AD25" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AE25" s="19" t="s">
+      <c r="AE25" s="16" t="s">
         <v>7</v>
       </c>
       <c r="AF25" s="1"/>
-      <c r="AG25" s="17" t="s">
+      <c r="AG25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AH25" s="19" t="s">
+      <c r="AH25" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AI25" s="19" t="s">
+      <c r="AI25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AJ25" s="19" t="s">
+      <c r="AJ25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AK25" s="19" t="s">
+      <c r="AK25" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AL25" s="19" t="s">
+      <c r="AL25" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AM25" s="19" t="s">
+      <c r="AM25" s="16" t="s">
         <v>7</v>
       </c>
       <c r="AN25" s="1"/>
-      <c r="AO25" s="17" t="s">
+      <c r="AO25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AP25" s="19" t="s">
+      <c r="AP25" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AQ25" s="19" t="s">
+      <c r="AQ25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AR25" s="19" t="s">
+      <c r="AR25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AS25" s="19" t="s">
+      <c r="AS25" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AT25" s="19" t="s">
+      <c r="AT25" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AU25" s="19" t="s">
+      <c r="AU25" s="16" t="s">
         <v>7</v>
       </c>
       <c r="AV25" s="1"/>
-      <c r="AW25" s="17" t="s">
+      <c r="AW25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AX25" s="19" t="s">
+      <c r="AX25" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AY25" s="19" t="s">
+      <c r="AY25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AZ25" s="19" t="s">
+      <c r="AZ25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="BA25" s="19" t="s">
+      <c r="BA25" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="BB25" s="19" t="s">
+      <c r="BB25" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="BC25" s="19" t="s">
+      <c r="BC25" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AG26" s="18"/>
-      <c r="AH26" s="20"/>
-      <c r="AI26" s="20"/>
-      <c r="AJ26" s="20"/>
-      <c r="AK26" s="20"/>
-      <c r="AL26" s="20"/>
-      <c r="AM26" s="20"/>
-      <c r="AO26" s="18"/>
-      <c r="AP26" s="20"/>
-      <c r="AQ26" s="20"/>
-      <c r="AR26" s="20"/>
-      <c r="AS26" s="20"/>
-      <c r="AT26" s="20"/>
-      <c r="AU26" s="20"/>
-      <c r="AW26" s="18"/>
-      <c r="AX26" s="20"/>
-      <c r="AY26" s="20"/>
-      <c r="AZ26" s="20"/>
-      <c r="BA26" s="20"/>
-      <c r="BB26" s="20"/>
-      <c r="BC26" s="20"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="17"/>
+      <c r="AQ26" s="17"/>
+      <c r="AR26" s="17"/>
+      <c r="AS26" s="17"/>
+      <c r="AT26" s="17"/>
+      <c r="AU26" s="17"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="17"/>
+      <c r="AY26" s="17"/>
+      <c r="AZ26" s="17"/>
+      <c r="BA26" s="17"/>
+      <c r="BB26" s="17"/>
+      <c r="BC26" s="17"/>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
@@ -4632,7 +5020,9 @@
       <c r="BB27" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="BC27" s="8"/>
+      <c r="BC27" s="9" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -4779,7 +5169,9 @@
       <c r="BB28" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="BC28" s="5"/>
+      <c r="BC28" s="5" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -4922,7 +5314,9 @@
       <c r="BB29" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="BC29" s="5"/>
+      <c r="BC29" s="5" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -5723,11 +6117,15 @@
       <c r="AW35" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AX35" s="8"/>
+      <c r="AX35" s="8" t="s">
+        <v>780</v>
+      </c>
       <c r="AY35" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="AZ35" s="8"/>
+      <c r="AZ35" s="8" t="s">
+        <v>787</v>
+      </c>
       <c r="BA35" s="8"/>
       <c r="BB35" s="14" t="s">
         <v>225</v>
@@ -5782,7 +6180,9 @@
       <c r="Q36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R36" s="5"/>
+      <c r="R36" s="5" t="s">
+        <v>781</v>
+      </c>
       <c r="S36" s="5" t="s">
         <v>190</v>
       </c>
@@ -5864,7 +6264,9 @@
       <c r="AW36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AX36" s="5"/>
+      <c r="AX36" s="5" t="s">
+        <v>780</v>
+      </c>
       <c r="AY36" s="5" t="s">
         <v>291</v>
       </c>
@@ -6714,320 +7116,320 @@
       <c r="BC42" s="6"/>
     </row>
     <row r="45" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="I45" s="16" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="I45" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="Q45" s="16" t="s">
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="Q45" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="Y45" s="16" t="s">
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="Y45" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="Z45" s="16"/>
-      <c r="AA45" s="16"/>
-      <c r="AB45" s="16"/>
-      <c r="AC45" s="16"/>
-      <c r="AD45" s="16"/>
-      <c r="AE45" s="16"/>
-      <c r="AG45" s="16" t="s">
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="20"/>
+      <c r="AE45" s="20"/>
+      <c r="AG45" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="AH45" s="16"/>
-      <c r="AI45" s="16"/>
-      <c r="AJ45" s="16"/>
-      <c r="AK45" s="16"/>
-      <c r="AL45" s="16"/>
-      <c r="AM45" s="16"/>
-      <c r="AO45" s="16" t="s">
+      <c r="AH45" s="20"/>
+      <c r="AI45" s="20"/>
+      <c r="AJ45" s="20"/>
+      <c r="AK45" s="20"/>
+      <c r="AL45" s="20"/>
+      <c r="AM45" s="20"/>
+      <c r="AO45" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="AP45" s="16"/>
-      <c r="AQ45" s="16"/>
-      <c r="AR45" s="16"/>
-      <c r="AS45" s="16"/>
-      <c r="AT45" s="16"/>
-      <c r="AU45" s="16"/>
-      <c r="AW45" s="16" t="s">
+      <c r="AP45" s="20"/>
+      <c r="AQ45" s="20"/>
+      <c r="AR45" s="20"/>
+      <c r="AS45" s="20"/>
+      <c r="AT45" s="20"/>
+      <c r="AU45" s="20"/>
+      <c r="AW45" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="AX45" s="16"/>
-      <c r="AY45" s="16"/>
-      <c r="AZ45" s="16"/>
-      <c r="BA45" s="16"/>
-      <c r="BB45" s="16"/>
-      <c r="BC45" s="16"/>
+      <c r="AX45" s="20"/>
+      <c r="AY45" s="20"/>
+      <c r="AZ45" s="20"/>
+      <c r="BA45" s="20"/>
+      <c r="BB45" s="20"/>
+      <c r="BC45" s="20"/>
     </row>
     <row r="46" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="16"/>
-      <c r="AA46" s="16"/>
-      <c r="AB46" s="16"/>
-      <c r="AC46" s="16"/>
-      <c r="AD46" s="16"/>
-      <c r="AE46" s="16"/>
-      <c r="AG46" s="16"/>
-      <c r="AH46" s="16"/>
-      <c r="AI46" s="16"/>
-      <c r="AJ46" s="16"/>
-      <c r="AK46" s="16"/>
-      <c r="AL46" s="16"/>
-      <c r="AM46" s="16"/>
-      <c r="AO46" s="16"/>
-      <c r="AP46" s="16"/>
-      <c r="AQ46" s="16"/>
-      <c r="AR46" s="16"/>
-      <c r="AS46" s="16"/>
-      <c r="AT46" s="16"/>
-      <c r="AU46" s="16"/>
-      <c r="AW46" s="16"/>
-      <c r="AX46" s="16"/>
-      <c r="AY46" s="16"/>
-      <c r="AZ46" s="16"/>
-      <c r="BA46" s="16"/>
-      <c r="BB46" s="16"/>
-      <c r="BC46" s="16"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="20"/>
+      <c r="AE46" s="20"/>
+      <c r="AG46" s="20"/>
+      <c r="AH46" s="20"/>
+      <c r="AI46" s="20"/>
+      <c r="AJ46" s="20"/>
+      <c r="AK46" s="20"/>
+      <c r="AL46" s="20"/>
+      <c r="AM46" s="20"/>
+      <c r="AO46" s="20"/>
+      <c r="AP46" s="20"/>
+      <c r="AQ46" s="20"/>
+      <c r="AR46" s="20"/>
+      <c r="AS46" s="20"/>
+      <c r="AT46" s="20"/>
+      <c r="AU46" s="20"/>
+      <c r="AW46" s="20"/>
+      <c r="AX46" s="20"/>
+      <c r="AY46" s="20"/>
+      <c r="AZ46" s="20"/>
+      <c r="BA46" s="20"/>
+      <c r="BB46" s="20"/>
+      <c r="BC46" s="20"/>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G47" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="17" t="s">
+      <c r="I47" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J47" s="19" t="s">
+      <c r="J47" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K47" s="19" t="s">
+      <c r="K47" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="19" t="s">
+      <c r="L47" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="19" t="s">
+      <c r="M47" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N47" s="19" t="s">
+      <c r="N47" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O47" s="19" t="s">
+      <c r="O47" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Q47" s="17" t="s">
+      <c r="Q47" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="R47" s="19" t="s">
+      <c r="R47" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="S47" s="19" t="s">
+      <c r="S47" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T47" s="19" t="s">
+      <c r="T47" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="U47" s="19" t="s">
+      <c r="U47" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="V47" s="19" t="s">
+      <c r="V47" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="W47" s="19" t="s">
+      <c r="W47" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Y47" s="17" t="s">
+      <c r="Y47" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Z47" s="19" t="s">
+      <c r="Z47" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AA47" s="19" t="s">
+      <c r="AA47" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AB47" s="19" t="s">
+      <c r="AB47" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AC47" s="19" t="s">
+      <c r="AC47" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AD47" s="19" t="s">
+      <c r="AD47" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AE47" s="19" t="s">
+      <c r="AE47" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AG47" s="17" t="s">
+      <c r="AG47" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AH47" s="19" t="s">
+      <c r="AH47" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AI47" s="19" t="s">
+      <c r="AI47" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AJ47" s="19" t="s">
+      <c r="AJ47" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AK47" s="19" t="s">
+      <c r="AK47" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AL47" s="19" t="s">
+      <c r="AL47" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AM47" s="19" t="s">
+      <c r="AM47" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AO47" s="17" t="s">
+      <c r="AO47" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AP47" s="19" t="s">
+      <c r="AP47" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AQ47" s="19" t="s">
+      <c r="AQ47" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AR47" s="19" t="s">
+      <c r="AR47" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AS47" s="19" t="s">
+      <c r="AS47" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AT47" s="19" t="s">
+      <c r="AT47" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AU47" s="19" t="s">
+      <c r="AU47" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AW47" s="17" t="s">
+      <c r="AW47" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AX47" s="19" t="s">
+      <c r="AX47" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AY47" s="19" t="s">
+      <c r="AY47" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AZ47" s="19" t="s">
+      <c r="AZ47" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="BA47" s="19" t="s">
+      <c r="BA47" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="BB47" s="19" t="s">
+      <c r="BB47" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="BC47" s="19" t="s">
+      <c r="BC47" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="Y48" s="18"/>
-      <c r="Z48" s="20"/>
-      <c r="AA48" s="20"/>
-      <c r="AB48" s="20"/>
-      <c r="AC48" s="20"/>
-      <c r="AD48" s="20"/>
-      <c r="AE48" s="20"/>
-      <c r="AG48" s="18"/>
-      <c r="AH48" s="20"/>
-      <c r="AI48" s="20"/>
-      <c r="AJ48" s="20"/>
-      <c r="AK48" s="20"/>
-      <c r="AL48" s="20"/>
-      <c r="AM48" s="20"/>
-      <c r="AO48" s="18"/>
-      <c r="AP48" s="20"/>
-      <c r="AQ48" s="20"/>
-      <c r="AR48" s="20"/>
-      <c r="AS48" s="20"/>
-      <c r="AT48" s="20"/>
-      <c r="AU48" s="20"/>
-      <c r="AW48" s="18"/>
-      <c r="AX48" s="20"/>
-      <c r="AY48" s="20"/>
-      <c r="AZ48" s="20"/>
-      <c r="BA48" s="20"/>
-      <c r="BB48" s="20"/>
-      <c r="BC48" s="20"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="17"/>
+      <c r="AD48" s="17"/>
+      <c r="AE48" s="17"/>
+      <c r="AG48" s="19"/>
+      <c r="AH48" s="17"/>
+      <c r="AI48" s="17"/>
+      <c r="AJ48" s="17"/>
+      <c r="AK48" s="17"/>
+      <c r="AL48" s="17"/>
+      <c r="AM48" s="17"/>
+      <c r="AO48" s="19"/>
+      <c r="AP48" s="17"/>
+      <c r="AQ48" s="17"/>
+      <c r="AR48" s="17"/>
+      <c r="AS48" s="17"/>
+      <c r="AT48" s="17"/>
+      <c r="AU48" s="17"/>
+      <c r="AW48" s="19"/>
+      <c r="AX48" s="17"/>
+      <c r="AY48" s="17"/>
+      <c r="AZ48" s="17"/>
+      <c r="BA48" s="17"/>
+      <c r="BB48" s="17"/>
+      <c r="BC48" s="17"/>
     </row>
     <row r="49" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
@@ -7048,7 +7450,9 @@
       <c r="F49" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="G49" s="9"/>
+      <c r="G49" s="9" t="s">
+        <v>782</v>
+      </c>
       <c r="I49" s="7" t="s">
         <v>9</v>
       </c>
@@ -7155,7 +7559,9 @@
       <c r="F50" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>782</v>
+      </c>
       <c r="I50" s="3" t="s">
         <v>10</v>
       </c>
@@ -7262,27 +7668,41 @@
       <c r="F51" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="G51" s="5"/>
+      <c r="G51" s="5" t="s">
+        <v>782</v>
+      </c>
       <c r="I51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J51" s="5"/>
+      <c r="J51" s="5" t="s">
+        <v>789</v>
+      </c>
       <c r="K51" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="L51" s="5"/>
+      <c r="L51" s="5" t="s">
+        <v>775</v>
+      </c>
       <c r="M51" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="N51" s="5"/>
+      <c r="N51" s="5" t="s">
+        <v>786</v>
+      </c>
       <c r="O51" s="5"/>
       <c r="Q51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R51" s="5"/>
+      <c r="R51" s="5" t="s">
+        <v>775</v>
+      </c>
       <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
+      <c r="T51" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>779</v>
+      </c>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="Y51" s="3" t="s">
@@ -7293,7 +7713,9 @@
       <c r="AB51" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="AC51" s="5"/>
+      <c r="AC51" s="5" t="s">
+        <v>795</v>
+      </c>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
       <c r="AG51" s="3" t="s">
@@ -7345,23 +7767,35 @@
       <c r="I52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J52" s="5"/>
+      <c r="J52" s="5" t="s">
+        <v>789</v>
+      </c>
       <c r="K52" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="L52" s="5"/>
+      <c r="L52" s="11" t="s">
+        <v>775</v>
+      </c>
       <c r="M52" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="N52" s="5"/>
+      <c r="N52" s="5" t="s">
+        <v>795</v>
+      </c>
       <c r="O52" s="5"/>
       <c r="Q52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R52" s="5"/>
+      <c r="R52" s="11" t="s">
+        <v>775</v>
+      </c>
       <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
+      <c r="T52" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="U52" s="11" t="s">
+        <v>779</v>
+      </c>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
       <c r="Y52" s="3" t="s">
@@ -7372,7 +7806,9 @@
       <c r="AB52" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AC52" s="5"/>
+      <c r="AC52" s="5" t="s">
+        <v>795</v>
+      </c>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
       <c r="AG52" s="3" t="s">
@@ -7424,9 +7860,15 @@
       <c r="I53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
+      <c r="J53" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>783</v>
+      </c>
       <c r="M53" s="5" t="s">
         <v>375</v>
       </c>
@@ -7440,7 +7882,9 @@
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
+      <c r="U53" s="5" t="s">
+        <v>786</v>
+      </c>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
       <c r="Y53" s="3" t="s">
@@ -7503,9 +7947,15 @@
       <c r="I54" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
+      <c r="J54" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>783</v>
+      </c>
       <c r="M54" s="11" t="s">
         <v>375</v>
       </c>
@@ -7519,7 +7969,9 @@
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
+      <c r="U54" s="11" t="s">
+        <v>786</v>
+      </c>
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
       <c r="Y54" s="10" t="s">
@@ -7565,7 +8017,9 @@
       <c r="A55" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="9"/>
+      <c r="B55" s="9" t="s">
+        <v>796</v>
+      </c>
       <c r="C55" s="9" t="s">
         <v>158</v>
       </c>
@@ -7650,8 +8104,10 @@
       <c r="A56" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5" t="s">
+      <c r="B56" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>189</v>
       </c>
       <c r="D56" s="6" t="s">
@@ -7742,7 +8198,9 @@
       <c r="D57" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="8" t="s">
+        <v>781</v>
+      </c>
       <c r="F57" s="8" t="s">
         <v>410</v>
       </c>
@@ -7756,7 +8214,9 @@
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
+      <c r="N57" s="8" t="s">
+        <v>776</v>
+      </c>
       <c r="O57" s="8" t="s">
         <v>233</v>
       </c>
@@ -7795,7 +8255,9 @@
       </c>
       <c r="AJ57" s="8"/>
       <c r="AK57" s="8"/>
-      <c r="AL57" s="8"/>
+      <c r="AL57" s="8" t="s">
+        <v>790</v>
+      </c>
       <c r="AM57" s="8" t="s">
         <v>374</v>
       </c>
@@ -7833,7 +8295,9 @@
       <c r="D58" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>781</v>
+      </c>
       <c r="F58" s="5" t="s">
         <v>254</v>
       </c>
@@ -7847,7 +8311,9 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
+      <c r="N58" s="5" t="s">
+        <v>776</v>
+      </c>
       <c r="O58" s="5" t="s">
         <v>233</v>
       </c>
@@ -7884,7 +8350,9 @@
       </c>
       <c r="AJ58" s="5"/>
       <c r="AK58" s="5"/>
-      <c r="AL58" s="5"/>
+      <c r="AL58" s="5" t="s">
+        <v>790</v>
+      </c>
       <c r="AM58" s="5" t="s">
         <v>374</v>
       </c>
@@ -7915,9 +8383,13 @@
       <c r="A59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="5"/>
+      <c r="B59" s="5" t="s">
+        <v>792</v>
+      </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="D59" s="5" t="s">
+        <v>791</v>
+      </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
         <v>254</v>
@@ -7992,9 +8464,13 @@
       <c r="A60" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="11" t="s">
+        <v>792</v>
+      </c>
       <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="D60" s="11" t="s">
+        <v>791</v>
+      </c>
       <c r="E60" s="11"/>
       <c r="F60" s="11" t="s">
         <v>254</v>
@@ -8504,7 +8980,9 @@
       <c r="Q64" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R64" s="6"/>
+      <c r="R64" s="6" t="s">
+        <v>762</v>
+      </c>
       <c r="S64" s="6"/>
       <c r="T64" s="6" t="s">
         <v>239</v>
@@ -8527,7 +9005,9 @@
       </c>
       <c r="AB64" s="6"/>
       <c r="AC64" s="6"/>
-      <c r="AD64" s="6"/>
+      <c r="AD64" s="6" t="s">
+        <v>773</v>
+      </c>
       <c r="AE64" s="6"/>
       <c r="AG64" s="4" t="s">
         <v>24</v>
@@ -8587,40 +9067,968 @@
       </c>
       <c r="BC64" s="6"/>
     </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="I67" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="Q67" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="20"/>
+    </row>
+    <row r="68" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="20"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J69" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K69" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L69" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M69" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N69" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O69" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q69" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="R69" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="S69" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T69" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="U69" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="V69" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="W69" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="19"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="17"/>
+      <c r="W70" s="17"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="Q71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="Q72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="Q73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="I74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="Q74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="I75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="Q75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+    </row>
+    <row r="76" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="G76" s="11"/>
+      <c r="I76" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="Q76" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="G77" s="9"/>
+      <c r="I77" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="Q77" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+    </row>
+    <row r="78" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="G78" s="6"/>
+      <c r="I78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="Q78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="G79" s="9"/>
+      <c r="I79" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="N79" s="8"/>
+      <c r="O79" s="9"/>
+      <c r="Q79" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="9"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="I80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="Q80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="I81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="M81" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="Q81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+    </row>
+    <row r="82" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="G82" s="6"/>
+      <c r="I82" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="M82" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="N82" s="11"/>
+      <c r="O82" s="6"/>
+      <c r="Q82" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="11"/>
+      <c r="W82" s="6"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="G83" s="8"/>
+      <c r="I83" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c r="Q83" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="8"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G84" s="5"/>
+      <c r="I84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="O84" s="5"/>
+      <c r="Q84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="G85" s="5"/>
+      <c r="I85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="M85" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="O85" s="5"/>
+      <c r="Q85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="T85" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+    </row>
+    <row r="86" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="G86" s="6"/>
+      <c r="I86" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="O86" s="6"/>
+      <c r="Q86" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="T86" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="AZ25:AZ26"/>
-    <mergeCell ref="BA25:BA26"/>
-    <mergeCell ref="BB25:BB26"/>
-    <mergeCell ref="BC25:BC26"/>
-    <mergeCell ref="AS25:AS26"/>
-    <mergeCell ref="AT25:AT26"/>
-    <mergeCell ref="AU25:AU26"/>
-    <mergeCell ref="AW25:AW26"/>
-    <mergeCell ref="AX25:AX26"/>
-    <mergeCell ref="AY25:AY26"/>
-    <mergeCell ref="AL25:AL26"/>
-    <mergeCell ref="AM25:AM26"/>
-    <mergeCell ref="AO25:AO26"/>
-    <mergeCell ref="AP25:AP26"/>
-    <mergeCell ref="AQ25:AQ26"/>
-    <mergeCell ref="AR25:AR26"/>
-    <mergeCell ref="AE25:AE26"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AH25:AH26"/>
-    <mergeCell ref="AI25:AI26"/>
-    <mergeCell ref="AJ25:AJ26"/>
-    <mergeCell ref="AK25:AK26"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
+  <mergeCells count="192">
+    <mergeCell ref="Q67:W68"/>
+    <mergeCell ref="Q69:Q70"/>
+    <mergeCell ref="R69:R70"/>
+    <mergeCell ref="S69:S70"/>
+    <mergeCell ref="T69:T70"/>
+    <mergeCell ref="U69:U70"/>
+    <mergeCell ref="V69:V70"/>
+    <mergeCell ref="W69:W70"/>
+    <mergeCell ref="A67:G68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="I67:O68"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="AW45:BC46"/>
+    <mergeCell ref="AW47:AW48"/>
+    <mergeCell ref="AX47:AX48"/>
+    <mergeCell ref="AY47:AY48"/>
+    <mergeCell ref="AZ47:AZ48"/>
+    <mergeCell ref="BA47:BA48"/>
+    <mergeCell ref="BB47:BB48"/>
+    <mergeCell ref="BC47:BC48"/>
+    <mergeCell ref="AG45:AM46"/>
+    <mergeCell ref="AG47:AG48"/>
+    <mergeCell ref="AH47:AH48"/>
+    <mergeCell ref="AI47:AI48"/>
+    <mergeCell ref="AJ47:AJ48"/>
+    <mergeCell ref="AK47:AK48"/>
+    <mergeCell ref="AL47:AL48"/>
+    <mergeCell ref="AM47:AM48"/>
+    <mergeCell ref="AO45:AU46"/>
+    <mergeCell ref="AO47:AO48"/>
+    <mergeCell ref="AP47:AP48"/>
+    <mergeCell ref="AQ47:AQ48"/>
+    <mergeCell ref="AR47:AR48"/>
+    <mergeCell ref="AS47:AS48"/>
+    <mergeCell ref="AT47:AT48"/>
+    <mergeCell ref="AU47:AU48"/>
+    <mergeCell ref="Q45:W46"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="T47:T48"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="V47:V48"/>
+    <mergeCell ref="W47:W48"/>
+    <mergeCell ref="Y45:AE46"/>
+    <mergeCell ref="Y47:Y48"/>
+    <mergeCell ref="Z47:Z48"/>
+    <mergeCell ref="AA47:AA48"/>
+    <mergeCell ref="AB47:AB48"/>
+    <mergeCell ref="AC47:AC48"/>
+    <mergeCell ref="AD47:AD48"/>
+    <mergeCell ref="AE47:AE48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="I45:O46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A45:G46"/>
+    <mergeCell ref="Q1:W2"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="I1:O2"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="AG1:AM2"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="Y1:AE2"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AW1:BC2"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="AX3:AX4"/>
+    <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="AZ3:AZ4"/>
+    <mergeCell ref="BA3:BA4"/>
+    <mergeCell ref="BB3:BB4"/>
+    <mergeCell ref="BC3:BC4"/>
+    <mergeCell ref="AO1:AU2"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU3:AU4"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="M25:M26"/>
@@ -8645,118 +10053,38 @@
     <mergeCell ref="AO23:AU24"/>
     <mergeCell ref="Y25:Y26"/>
     <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AW1:BC2"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="AX3:AX4"/>
-    <mergeCell ref="AY3:AY4"/>
-    <mergeCell ref="AZ3:AZ4"/>
-    <mergeCell ref="BA3:BA4"/>
-    <mergeCell ref="BB3:BB4"/>
-    <mergeCell ref="BC3:BC4"/>
-    <mergeCell ref="AO1:AU2"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AG1:AM2"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="Y1:AE2"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="Q1:W2"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="I1:O2"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A45:G46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="I45:O46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="Q45:W46"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="T47:T48"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="V47:V48"/>
-    <mergeCell ref="W47:W48"/>
-    <mergeCell ref="Y45:AE46"/>
-    <mergeCell ref="Y47:Y48"/>
-    <mergeCell ref="Z47:Z48"/>
-    <mergeCell ref="AA47:AA48"/>
-    <mergeCell ref="AB47:AB48"/>
-    <mergeCell ref="AC47:AC48"/>
-    <mergeCell ref="AD47:AD48"/>
-    <mergeCell ref="AE47:AE48"/>
-    <mergeCell ref="AW45:BC46"/>
-    <mergeCell ref="AW47:AW48"/>
-    <mergeCell ref="AX47:AX48"/>
-    <mergeCell ref="AY47:AY48"/>
-    <mergeCell ref="AZ47:AZ48"/>
-    <mergeCell ref="BA47:BA48"/>
-    <mergeCell ref="BB47:BB48"/>
-    <mergeCell ref="BC47:BC48"/>
-    <mergeCell ref="AG45:AM46"/>
-    <mergeCell ref="AG47:AG48"/>
-    <mergeCell ref="AH47:AH48"/>
-    <mergeCell ref="AI47:AI48"/>
-    <mergeCell ref="AJ47:AJ48"/>
-    <mergeCell ref="AK47:AK48"/>
-    <mergeCell ref="AL47:AL48"/>
-    <mergeCell ref="AM47:AM48"/>
-    <mergeCell ref="AO45:AU46"/>
-    <mergeCell ref="AO47:AO48"/>
-    <mergeCell ref="AP47:AP48"/>
-    <mergeCell ref="AQ47:AQ48"/>
-    <mergeCell ref="AR47:AR48"/>
-    <mergeCell ref="AS47:AS48"/>
-    <mergeCell ref="AT47:AT48"/>
-    <mergeCell ref="AU47:AU48"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AD25:AD26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="AL25:AL26"/>
+    <mergeCell ref="AM25:AM26"/>
+    <mergeCell ref="AO25:AO26"/>
+    <mergeCell ref="AP25:AP26"/>
+    <mergeCell ref="AQ25:AQ26"/>
+    <mergeCell ref="AR25:AR26"/>
+    <mergeCell ref="AE25:AE26"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AH25:AH26"/>
+    <mergeCell ref="AI25:AI26"/>
+    <mergeCell ref="AJ25:AJ26"/>
+    <mergeCell ref="AK25:AK26"/>
+    <mergeCell ref="AZ25:AZ26"/>
+    <mergeCell ref="BA25:BA26"/>
+    <mergeCell ref="BB25:BB26"/>
+    <mergeCell ref="BC25:BC26"/>
+    <mergeCell ref="AS25:AS26"/>
+    <mergeCell ref="AT25:AT26"/>
+    <mergeCell ref="AU25:AU26"/>
+    <mergeCell ref="AW25:AW26"/>
+    <mergeCell ref="AX25:AX26"/>
+    <mergeCell ref="AY25:AY26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8788,10 +10116,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7735715D-6303-49A4-9B0A-85EB0FE510D0}">
-  <dimension ref="A3:AE66"/>
+  <dimension ref="A3:AE89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I25" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33:U34"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="AD33" sqref="AD33:AD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8800,188 +10128,188 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="I3" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="Q3" s="16" t="s">
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="Q3" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="Y3" s="16" t="s">
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="Y3" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="19" t="s">
+      <c r="T5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="U5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="19" t="s">
+      <c r="V5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="W5" s="19" t="s">
+      <c r="W5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Y5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Z5" s="19" t="s">
+      <c r="Z5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="19" t="s">
+      <c r="AA5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AB5" s="19" t="s">
+      <c r="AB5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="19" t="s">
+      <c r="AC5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AD5" s="19" t="s">
+      <c r="AD5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AE5" s="19" t="s">
+      <c r="AE5" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -9054,7 +10382,7 @@
         <v>549</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AB7" s="9" t="s">
         <v>565</v>
@@ -9140,7 +10468,7 @@
         <v>588</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AB8" s="5" t="s">
         <v>565</v>
@@ -9498,7 +10826,9 @@
       <c r="I13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>693</v>
+      </c>
       <c r="K13" s="9" t="s">
         <v>341</v>
       </c>
@@ -9535,7 +10865,7 @@
         <v>15</v>
       </c>
       <c r="Z13" s="9" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AA13" s="9" t="s">
         <v>515</v>
@@ -9544,10 +10874,10 @@
         <v>561</v>
       </c>
       <c r="AC13" s="9" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AE13" s="9"/>
     </row>
@@ -9574,12 +10904,14 @@
       <c r="I14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="6"/>
+      <c r="J14" s="6" t="s">
+        <v>693</v>
+      </c>
       <c r="K14" s="6" t="s">
         <v>341</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>341</v>
@@ -9611,7 +10943,7 @@
         <v>16</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AA14" s="6" t="s">
         <v>515</v>
@@ -9620,10 +10952,10 @@
         <v>561</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AD14" s="6" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AE14" s="6"/>
     </row>
@@ -9695,7 +11027,7 @@
         <v>17</v>
       </c>
       <c r="Z15" s="8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AA15" s="9" t="s">
         <v>521</v>
@@ -10282,221 +11614,227 @@
       <c r="AE22" s="6"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="20" t="s">
         <v>547</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="I25" s="16" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="I25" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="Q25" s="16" t="s">
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="Q25" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="Y25" s="16" t="s">
-        <v>624</v>
-      </c>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="16"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="Y25" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
     </row>
     <row r="26" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="16"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="K27" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N27" s="19" t="s">
+      <c r="N27" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O27" s="19" t="s">
+      <c r="O27" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Q27" s="17" t="s">
+      <c r="Q27" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="R27" s="19" t="s">
+      <c r="R27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="S27" s="19" t="s">
+      <c r="S27" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="19" t="s">
+      <c r="T27" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="U27" s="19" t="s">
+      <c r="U27" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="V27" s="19" t="s">
+      <c r="V27" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="W27" s="19" t="s">
+      <c r="W27" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Y27" s="17" t="s">
+      <c r="Y27" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Z27" s="19" t="s">
+      <c r="Z27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AA27" s="19" t="s">
+      <c r="AA27" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AB27" s="19" t="s">
+      <c r="AB27" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AC27" s="19" t="s">
+      <c r="AC27" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AD27" s="19" t="s">
+      <c r="AD27" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AE27" s="19" t="s">
+      <c r="AE27" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G29" s="8"/>
       <c r="I29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="J29" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>673</v>
+      </c>
       <c r="L29" s="9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="N29" s="8"/>
+      <c r="N29" s="8" t="s">
+        <v>717</v>
+      </c>
       <c r="O29" s="9" t="s">
         <v>599</v>
       </c>
@@ -10504,18 +11842,32 @@
         <v>9</v>
       </c>
       <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="8"/>
+      <c r="S29" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="U29" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="V29" s="9" t="s">
+        <v>678</v>
+      </c>
       <c r="W29" s="8"/>
       <c r="Y29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
+      <c r="AA29" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="AB29" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC29" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="AD29" s="8"/>
       <c r="AE29" s="8"/>
     </row>
@@ -10524,52 +11876,74 @@
         <v>10</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G30" s="5"/>
       <c r="I30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="J30" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>673</v>
+      </c>
       <c r="L30" s="5" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="N30" s="5"/>
+      <c r="N30" s="5" t="s">
+        <v>717</v>
+      </c>
       <c r="O30" s="5" t="s">
         <v>599</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
+      <c r="R30" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>678</v>
+      </c>
       <c r="W30" s="5"/>
       <c r="Y30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
+      <c r="AA30" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="AB30" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC30" s="5" t="s">
+        <v>727</v>
+      </c>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
     </row>
@@ -10581,54 +11955,68 @@
         <v>608</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>580</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G31" s="5"/>
       <c r="I31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="K31" s="5"/>
+        <v>661</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>702</v>
+      </c>
       <c r="L31" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="N31" s="5"/>
+      <c r="N31" s="5" t="s">
+        <v>696</v>
+      </c>
       <c r="O31" s="5" t="s">
         <v>599</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
+      <c r="R31" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>732</v>
+      </c>
       <c r="U31" s="5" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="Y31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
+      <c r="Z31" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA31" s="5" t="s">
+        <v>728</v>
+      </c>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
@@ -10641,50 +12029,66 @@
         <v>608</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>580</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G32" s="5"/>
       <c r="I32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="K32" s="5"/>
+        <v>661</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>702</v>
+      </c>
       <c r="L32" s="5" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="N32" s="5"/>
+      <c r="N32" s="5" t="s">
+        <v>696</v>
+      </c>
       <c r="O32" s="5"/>
       <c r="Q32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
+      <c r="R32" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>728</v>
+      </c>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="Y32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
+      <c r="Z32" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA32" s="5" t="s">
+        <v>728</v>
+      </c>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
@@ -10694,10 +12098,10 @@
         <v>13</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>564</v>
@@ -10706,7 +12110,7 @@
         <v>566</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G33" s="5"/>
       <c r="I33" s="3" t="s">
@@ -10714,7 +12118,7 @@
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>613</v>
@@ -10723,32 +12127,44 @@
         <v>614</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O33" s="5"/>
       <c r="Q33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
+      <c r="R33" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>679</v>
+      </c>
       <c r="T33" s="5" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="U33" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="V33" s="5"/>
+        <v>672</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>704</v>
+      </c>
       <c r="W33" s="5"/>
       <c r="Y33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
+      <c r="AA33" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="AB33" s="5" t="s">
+        <v>690</v>
+      </c>
       <c r="AC33" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="AD33" s="5"/>
+        <v>641</v>
+      </c>
+      <c r="AD33" s="5" t="s">
+        <v>740</v>
+      </c>
       <c r="AE33" s="5"/>
     </row>
     <row r="34" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10756,10 +12172,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>564</v>
@@ -10768,15 +12184,17 @@
         <v>566</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G34" s="11"/>
       <c r="I34" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="11"/>
+      <c r="J34" s="11" t="s">
+        <v>679</v>
+      </c>
       <c r="K34" s="11" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>613</v>
@@ -10785,32 +12203,44 @@
         <v>613</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O34" s="11"/>
       <c r="Q34" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
+      <c r="R34" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="S34" s="11" t="s">
+        <v>679</v>
+      </c>
       <c r="T34" s="11" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="U34" s="11" t="s">
-        <v>671</v>
-      </c>
-      <c r="V34" s="11"/>
+        <v>672</v>
+      </c>
+      <c r="V34" s="11" t="s">
+        <v>704</v>
+      </c>
       <c r="W34" s="11"/>
       <c r="Y34" s="10" t="s">
         <v>14</v>
       </c>
       <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
+      <c r="AA34" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="AB34" s="11" t="s">
+        <v>690</v>
+      </c>
       <c r="AC34" s="11" t="s">
-        <v>640</v>
-      </c>
-      <c r="AD34" s="11"/>
+        <v>641</v>
+      </c>
+      <c r="AD34" s="11" t="s">
+        <v>740</v>
+      </c>
       <c r="AE34" s="11"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -10818,109 +12248,145 @@
         <v>15</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>612</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G35" s="9"/>
       <c r="I35" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="L35" s="9"/>
+        <v>628</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>674</v>
+      </c>
       <c r="M35" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="N35" s="9"/>
+        <v>650</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>674</v>
+      </c>
       <c r="O35" s="9"/>
       <c r="Q35" s="12" t="s">
         <v>15</v>
       </c>
       <c r="R35" s="9"/>
       <c r="S35" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
+        <v>650</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="U35" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="V35" s="9" t="s">
+        <v>705</v>
+      </c>
       <c r="W35" s="9"/>
       <c r="Y35" s="12" t="s">
         <v>15</v>
       </c>
       <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
+      <c r="AA35" s="9" t="s">
+        <v>691</v>
+      </c>
       <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
+      <c r="AC35" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="AD35" s="9" t="s">
+        <v>721</v>
+      </c>
       <c r="AE35" s="9"/>
     </row>
     <row r="36" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>711</v>
+      </c>
       <c r="C36" s="6" t="s">
         <v>612</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G36" s="6"/>
       <c r="I36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="L36" s="6"/>
+      <c r="L36" s="6" t="s">
+        <v>674</v>
+      </c>
       <c r="M36" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="N36" s="6"/>
+        <v>650</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>674</v>
+      </c>
       <c r="O36" s="6"/>
       <c r="Q36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R36" s="6"/>
+      <c r="R36" s="6" t="s">
+        <v>729</v>
+      </c>
       <c r="S36" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
+        <v>650</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>705</v>
+      </c>
       <c r="W36" s="6"/>
       <c r="Y36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
+      <c r="AA36" s="6" t="s">
+        <v>691</v>
+      </c>
       <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
+      <c r="AC36" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="AD36" s="6" t="s">
+        <v>721</v>
+      </c>
       <c r="AE36" s="6"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
@@ -10939,35 +12405,41 @@
       <c r="E37" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="F37" s="8"/>
+      <c r="F37" s="8" t="s">
+        <v>711</v>
+      </c>
       <c r="G37" s="8"/>
       <c r="I37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="8"/>
+      <c r="J37" s="8" t="s">
+        <v>675</v>
+      </c>
       <c r="K37" s="8" t="s">
         <v>577</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="N37" s="8"/>
+      <c r="N37" s="8" t="s">
+        <v>694</v>
+      </c>
       <c r="O37" s="8"/>
       <c r="Q37" s="7" t="s">
         <v>17</v>
       </c>
       <c r="R37" s="8"/>
       <c r="S37" s="8" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="U37" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
@@ -10975,8 +12447,12 @@
         <v>17</v>
       </c>
       <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="8"/>
+      <c r="AA37" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="AB37" s="8" t="s">
+        <v>675</v>
+      </c>
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
@@ -10997,35 +12473,41 @@
       <c r="E38" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="F38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="G38" s="5"/>
       <c r="I38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="5"/>
+      <c r="J38" s="5" t="s">
+        <v>675</v>
+      </c>
       <c r="K38" s="5" t="s">
         <v>577</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="N38" s="5"/>
+      <c r="N38" s="5" t="s">
+        <v>694</v>
+      </c>
       <c r="O38" s="5"/>
       <c r="Q38" s="3" t="s">
         <v>18</v>
       </c>
       <c r="R38" s="5"/>
       <c r="S38" s="5" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="T38" s="5" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
@@ -11033,8 +12515,12 @@
         <v>18</v>
       </c>
       <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
+      <c r="AA38" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="AB38" s="5" t="s">
+        <v>675</v>
+      </c>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
@@ -11050,20 +12536,20 @@
         <v>559</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G39" s="5"/>
       <c r="I39" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>610</v>
@@ -11072,10 +12558,10 @@
         <v>602</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O39" s="5"/>
       <c r="Q39" s="3" t="s">
@@ -11086,17 +12572,25 @@
         <v>604</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="U39" s="5"/>
+        <v>649</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>731</v>
+      </c>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="Y39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
+      <c r="Z39" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="AA39" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="AB39" s="5" t="s">
+        <v>680</v>
+      </c>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
@@ -11112,20 +12606,20 @@
         <v>559</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G40" s="11"/>
       <c r="I40" s="10" t="s">
         <v>20</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K40" s="11" t="s">
         <v>583</v>
@@ -11134,10 +12628,10 @@
         <v>602</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O40" s="11"/>
       <c r="Q40" s="10" t="s">
@@ -11148,19 +12642,25 @@
         <v>604</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="U40" s="11"/>
+        <v>649</v>
+      </c>
+      <c r="U40" s="11" t="s">
+        <v>731</v>
+      </c>
       <c r="V40" s="11"/>
       <c r="W40" s="11"/>
       <c r="Y40" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Z40" s="11"/>
+      <c r="Z40" s="11" t="s">
+        <v>680</v>
+      </c>
       <c r="AA40" s="11" t="s">
-        <v>652</v>
-      </c>
-      <c r="AB40" s="11"/>
+        <v>653</v>
+      </c>
+      <c r="AB40" s="11" t="s">
+        <v>680</v>
+      </c>
       <c r="AC40" s="11"/>
       <c r="AD40" s="11"/>
       <c r="AE40" s="11"/>
@@ -11201,15 +12701,17 @@
         <v>589</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O41" s="9"/>
       <c r="Q41" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="R41" s="9"/>
+      <c r="R41" s="9" t="s">
+        <v>681</v>
+      </c>
       <c r="S41" s="9" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="T41" s="9" t="s">
         <v>607</v>
@@ -11218,21 +12720,25 @@
         <v>605</v>
       </c>
       <c r="V41" s="9" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="W41" s="9"/>
       <c r="Y41" s="12" t="s">
         <v>21</v>
       </c>
       <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
+      <c r="AA41" s="9" t="s">
+        <v>706</v>
+      </c>
       <c r="AB41" s="5" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AC41" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="AD41" s="9"/>
+        <v>617</v>
+      </c>
+      <c r="AD41" s="9" t="s">
+        <v>676</v>
+      </c>
       <c r="AE41" s="9"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
@@ -11262,7 +12768,7 @@
         <v>597</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>603</v>
@@ -11271,16 +12777,18 @@
         <v>589</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O42" s="5"/>
       <c r="Q42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="S42" s="5"/>
+        <v>655</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>730</v>
+      </c>
       <c r="T42" s="5" t="s">
         <v>607</v>
       </c>
@@ -11288,19 +12796,23 @@
         <v>605</v>
       </c>
       <c r="V42" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="W42" s="5"/>
       <c r="Y42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
+      <c r="AA42" s="5" t="s">
+        <v>706</v>
+      </c>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="AD42" s="5"/>
+      <c r="AD42" s="5" t="s">
+        <v>676</v>
+      </c>
       <c r="AE42" s="5"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -11311,7 +12823,7 @@
         <v>571</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>550</v>
@@ -11327,7 +12839,7 @@
         <v>23</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>591</v>
@@ -11339,14 +12851,14 @@
         <v>593</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O43" s="5"/>
       <c r="Q43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="S43" s="5" t="s">
         <v>593</v>
@@ -11355,26 +12867,30 @@
         <v>591</v>
       </c>
       <c r="U43" s="5" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="V43" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="W43" s="5"/>
       <c r="Y43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z43" s="5"/>
+      <c r="Z43" s="5" t="s">
+        <v>700</v>
+      </c>
       <c r="AA43" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB43" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC43" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="AB43" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="AC43" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="AD43" s="5"/>
+      <c r="AD43" s="5" t="s">
+        <v>681</v>
+      </c>
       <c r="AE43" s="5"/>
     </row>
     <row r="44" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11385,7 +12901,7 @@
         <v>571</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>550</v>
@@ -11401,7 +12917,7 @@
         <v>24</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>591</v>
@@ -11411,7 +12927,7 @@
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O44" s="6"/>
       <c r="Q44" s="4" t="s">
@@ -11425,125 +12941,217 @@
         <v>591</v>
       </c>
       <c r="U44" s="6" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="V44" s="6" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="W44" s="6"/>
       <c r="Y44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z44" s="6"/>
+      <c r="Z44" s="6" t="s">
+        <v>700</v>
+      </c>
       <c r="AA44" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB44" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC44" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="AB44" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="AC44" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="AD44" s="6"/>
+      <c r="AD44" s="6" t="s">
+        <v>681</v>
+      </c>
       <c r="AE44" s="6"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="I47" s="16" t="s">
-        <v>663</v>
-      </c>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
+      <c r="A47" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="I47" s="20" t="s">
+        <v>664</v>
+      </c>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="Q47" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="Y47" s="20" t="s">
+        <v>677</v>
+      </c>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20"/>
+      <c r="AE47" s="20"/>
     </row>
     <row r="48" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="20"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="19" t="s">
+      <c r="G49" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="17" t="s">
+      <c r="I49" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J49" s="19" t="s">
+      <c r="J49" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K49" s="19" t="s">
+      <c r="K49" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="19" t="s">
+      <c r="L49" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="19" t="s">
+      <c r="M49" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="19" t="s">
+      <c r="N49" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O49" s="19" t="s">
+      <c r="O49" s="16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q49" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="R49" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="S49" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="W49" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y49" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA49" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB49" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC49" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD49" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE49" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="19"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="17"/>
+      <c r="W50" s="17"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="17"/>
+      <c r="AA50" s="17"/>
+      <c r="AB50" s="17"/>
+      <c r="AC50" s="17"/>
+      <c r="AD50" s="17"/>
+      <c r="AE50" s="17"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>9</v>
       </c>
@@ -11562,8 +13170,26 @@
       <c r="M51" s="9"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="Y51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>10</v>
       </c>
@@ -11582,15 +13208,35 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="Y52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>702</v>
+      </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="I53" s="3" t="s">
@@ -11602,15 +13248,35 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="Y53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="11"/>
+      <c r="E54" s="5" t="s">
+        <v>702</v>
+      </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="I54" s="3" t="s">
@@ -11622,15 +13288,37 @@
       <c r="M54" s="11"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="Y54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="D55" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>697</v>
+      </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="I55" s="3" t="s">
@@ -11639,18 +13327,42 @@
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
+      <c r="M55" s="5" t="s">
+        <v>736</v>
+      </c>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
-    </row>
-    <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="Y55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+    </row>
+    <row r="56" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
+      <c r="D56" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>697</v>
+      </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="I56" s="10" t="s">
@@ -11659,19 +13371,47 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
+      <c r="M56" s="11" t="s">
+        <v>736</v>
+      </c>
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q56" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="Y56" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11"/>
+      <c r="AE56" s="11"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
+      <c r="C57" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>724</v>
+      </c>
       <c r="G57" s="9"/>
       <c r="I57" s="12" t="s">
         <v>15</v>
@@ -11682,16 +13422,42 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
-    </row>
-    <row r="58" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q57" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="Y57" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="9"/>
+    </row>
+    <row r="58" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="C58" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>724</v>
+      </c>
       <c r="G58" s="6"/>
       <c r="I58" s="4" t="s">
         <v>16</v>
@@ -11702,16 +13468,36 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="Y58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="D59" s="8"/>
+        <v>658</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>739</v>
+      </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -11719,21 +13505,43 @@
         <v>17</v>
       </c>
       <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
+      <c r="K59" s="8" t="s">
+        <v>725</v>
+      </c>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="Y59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="D60" s="5"/>
+        <v>658</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>739</v>
+      </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -11741,19 +13549,43 @@
         <v>18</v>
       </c>
       <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
+      <c r="K60" s="5" t="s">
+        <v>725</v>
+      </c>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="Y60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="C61" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>716</v>
+      </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -11766,14 +13598,36 @@
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
-    </row>
-    <row r="62" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="Y61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+    </row>
+    <row r="62" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+      <c r="C62" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>716</v>
+      </c>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
@@ -11786,121 +13640,801 @@
       <c r="M62" s="11"/>
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q62" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="Y62" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="11"/>
+      <c r="AB62" s="11"/>
+      <c r="AC62" s="11"/>
+      <c r="AD62" s="11"/>
+      <c r="AE62" s="11"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="F63" s="9"/>
+        <v>637</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>706</v>
+      </c>
       <c r="G63" s="9"/>
       <c r="I63" s="12" t="s">
         <v>21</v>
       </c>
       <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
+      <c r="K63" s="9" t="s">
+        <v>720</v>
+      </c>
       <c r="L63" s="9" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="N63" s="9"/>
+        <v>663</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>726</v>
+      </c>
       <c r="O63" s="9"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q63" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="U63" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="V63" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="W63" s="9"/>
+      <c r="Y63" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
+      <c r="AB63" s="9"/>
+      <c r="AC63" s="9"/>
+      <c r="AD63" s="9"/>
+      <c r="AE63" s="9"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="F64" s="5"/>
+        <v>637</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>706</v>
+      </c>
       <c r="G64" s="5"/>
       <c r="I64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
+      <c r="J64" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>720</v>
+      </c>
       <c r="L64" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="N64" s="5"/>
+        <v>663</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>726</v>
+      </c>
       <c r="O64" s="5"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="U64" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="V64" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="W64" s="5"/>
+      <c r="Y64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>703</v>
+      </c>
       <c r="D65" s="5" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="F65" s="5"/>
+        <v>650</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>703</v>
+      </c>
       <c r="G65" s="5"/>
       <c r="I65" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J65" s="5"/>
+      <c r="J65" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
+      <c r="L65" s="5" t="s">
+        <v>692</v>
+      </c>
       <c r="M65" s="5" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
-    </row>
-    <row r="66" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="U65" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="Y65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="AC65" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+    </row>
+    <row r="66" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
+      <c r="B66" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>703</v>
+      </c>
       <c r="D66" s="6" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="F66" s="6"/>
+        <v>650</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>703</v>
+      </c>
       <c r="G66" s="6"/>
       <c r="I66" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J66" s="6"/>
+      <c r="J66" s="6" t="s">
+        <v>712</v>
+      </c>
       <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
+      <c r="L66" s="6" t="s">
+        <v>692</v>
+      </c>
       <c r="M66" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
+      <c r="Q66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="U66" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="Y66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="AC66" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I70" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="Q70" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="20"/>
+      <c r="W70" s="20"/>
+    </row>
+    <row r="71" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="20"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I72" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J72" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K72" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O72" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q72" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="R72" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="S72" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="W72" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I73" s="19"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="17"/>
+      <c r="W73" s="17"/>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I74" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="Q74" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="Q75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="O76" s="5"/>
+      <c r="Q76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="O77" s="5"/>
+      <c r="Q77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="O78" s="5"/>
+      <c r="Q78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+    </row>
+    <row r="79" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I79" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="O79" s="11"/>
+      <c r="Q79" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I80" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="Q80" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+    </row>
+    <row r="81" spans="9:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="Q81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+    </row>
+    <row r="82" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I82" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="Q82" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="8"/>
+      <c r="V82" s="8"/>
+      <c r="W82" s="8"/>
+    </row>
+    <row r="83" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="Q83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+    </row>
+    <row r="84" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="Q84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+    </row>
+    <row r="85" spans="9:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I85" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="Q85" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="11"/>
+      <c r="V85" s="11"/>
+      <c r="W85" s="11"/>
+    </row>
+    <row r="86" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I86" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="Q86" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="V86" s="9"/>
+      <c r="W86" s="9"/>
+    </row>
+    <row r="87" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I87" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="Q87" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+    </row>
+    <row r="88" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="Q88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+    </row>
+    <row r="89" spans="9:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I89" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="Q89" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="112">
+    <mergeCell ref="Q3:W4"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="Y3:AE4"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I3:O4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="I25:O26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="A25:G26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="Y25:AE26"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AE27:AE28"/>
+    <mergeCell ref="Q25:W26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
     <mergeCell ref="I47:O48"/>
     <mergeCell ref="I49:I50"/>
     <mergeCell ref="J49:J50"/>
@@ -11917,70 +14451,38 @@
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F50"/>
     <mergeCell ref="G49:G50"/>
-    <mergeCell ref="Y25:AE26"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AE27:AE28"/>
-    <mergeCell ref="Q25:W26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="I25:O26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="A25:G26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I3:O4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="Q3:W4"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="Y3:AE4"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="Y47:AE48"/>
+    <mergeCell ref="Y49:Y50"/>
+    <mergeCell ref="Z49:Z50"/>
+    <mergeCell ref="AA49:AA50"/>
+    <mergeCell ref="AB49:AB50"/>
+    <mergeCell ref="AC49:AC50"/>
+    <mergeCell ref="AD49:AD50"/>
+    <mergeCell ref="AE49:AE50"/>
+    <mergeCell ref="Q47:W48"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="T49:T50"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="V49:V50"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="Q70:W71"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="S72:S73"/>
+    <mergeCell ref="T72:T73"/>
+    <mergeCell ref="U72:U73"/>
+    <mergeCell ref="V72:V73"/>
+    <mergeCell ref="W72:W73"/>
+    <mergeCell ref="I70:O71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="O72:O73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11997,188 +14499,188 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="I4" s="16" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="I4" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="Q4" s="16" t="s">
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="Q4" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="Y4" s="16" t="s">
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="Y4" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="T6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="U6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="19" t="s">
+      <c r="V6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="W6" s="19" t="s">
+      <c r="W6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Y6" s="17" t="s">
+      <c r="Y6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Z6" s="19" t="s">
+      <c r="Z6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AA6" s="19" t="s">
+      <c r="AA6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AB6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AC6" s="19" t="s">
+      <c r="AC6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AD6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AE6" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -12790,6 +15292,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I4:O5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q4:W5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
     <mergeCell ref="Y4:AE5"/>
     <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="Z6:Z7"/>
@@ -12798,30 +15324,6 @@
     <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="Q4:W5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="I4:O5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="A4:G5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12838,188 +15340,188 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="I4" s="16" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="I4" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="Q4" s="16" t="s">
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="Q4" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="Y4" s="16" t="s">
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="Y4" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="T6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="U6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="19" t="s">
+      <c r="V6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="W6" s="19" t="s">
+      <c r="W6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Y6" s="17" t="s">
+      <c r="Y6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Z6" s="19" t="s">
+      <c r="Z6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AA6" s="19" t="s">
+      <c r="AA6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AB6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AC6" s="19" t="s">
+      <c r="AC6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AD6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AE6" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -13519,7 +16021,7 @@
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
@@ -13588,7 +16090,7 @@
         <v>583</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="W16" s="8"/>
       <c r="Y16" s="7" t="s">
@@ -13656,7 +16158,7 @@
         <v>583</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="W17" s="5"/>
       <c r="Y17" s="3" t="s">
@@ -14125,6 +16627,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I4:O5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q4:W5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
     <mergeCell ref="Y4:AE5"/>
     <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="Z6:Z7"/>
@@ -14133,30 +16659,6 @@
     <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="Q4:W5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="I4:O5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="A4:G5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14192,56 +16694,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -14573,100 +17075,100 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="I3" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -15092,6 +17594,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="I3:O4"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
@@ -15100,14 +17610,6 @@
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15139,56 +17641,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -15457,56 +17959,56 @@
       <c r="G22" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -15706,6 +18208,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="A26:G27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
@@ -15714,14 +18224,6 @@
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
